--- a/Value/Visa.xlsx
+++ b/Value/Visa.xlsx
@@ -8,32 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205CCA8D-3C84-814B-9EDD-DDDE23AD9BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED689FA0-B906-254B-A324-52CC61A5F1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="500" windowWidth="27640" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$C$19:$T$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$C$3:$T$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$A$106:$B$106</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$A$19:$B$19</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$C$106:$T$106</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$C$19:$T$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$C$3:$T$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106:$B$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19:$B$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3:$B$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$C$106:$T$106</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$106:$B$106</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$A$19:$B$19</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$A$3:$B$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$C$106:$T$106</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$C$19:$T$19</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$C$3:$T$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="160">
-  <si>
-    <t>ROIC.AI | V</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -532,6 +510,12 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -874,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,18 +919,6 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -984,12 +956,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1011,6 +977,27 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2515,10 +2502,10 @@
   <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X43" sqref="X43"/>
+      <selection pane="bottomRight" activeCell="AA84" sqref="AA84:AB84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2530,7 +2517,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B1" s="8">
         <v>2004</v>
@@ -2607,73 +2594,73 @@
     </row>
     <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
@@ -2684,10 +2671,10 @@
     </row>
     <row r="3" spans="1:29" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1">
         <v>2664605000</v>
@@ -2759,21 +2746,21 @@
         <v>49870000000</v>
       </c>
       <c r="Z3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AB3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AC3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="e">
@@ -2887,19 +2874,19 @@
     </row>
     <row r="5" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1">
         <v>957011000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="1">
         <v>1538000000</v>
@@ -2949,19 +2936,19 @@
     </row>
     <row r="6" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="10">
         <v>1707594000</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="10">
         <v>4725000000</v>
@@ -3009,33 +2996,33 @@
         <v>23577000000</v>
       </c>
       <c r="Z6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AB6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AC6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2">
         <v>0.64080000000000004</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="2">
         <v>0.75439999999999996</v>
@@ -3101,7 +3088,7 @@
     </row>
     <row r="8" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -3163,7 +3150,7 @@
     </row>
     <row r="9" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3242,24 +3229,24 @@
         <v>0</v>
       </c>
       <c r="Z9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AA9" s="19" t="s">
+      <c r="AB9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AB9" s="19" t="s">
+      <c r="AC9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AC9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1">
         <v>665416000</v>
@@ -3334,10 +3321,10 @@
     </row>
     <row r="11" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1">
         <v>456922000</v>
@@ -3396,10 +3383,10 @@
     </row>
     <row r="12" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1">
         <v>1122338000</v>
@@ -3456,21 +3443,21 @@
         <v>3035000000</v>
       </c>
       <c r="Z12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AA12" s="19" t="s">
+      <c r="AB12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AB12" s="19" t="s">
+      <c r="AC12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AC12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -3567,16 +3554,16 @@
     </row>
     <row r="14" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1">
         <v>4247460000</v>
@@ -3629,16 +3616,16 @@
     </row>
     <row r="15" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1">
         <v>1122338000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1">
         <v>5039291000</v>
@@ -3689,24 +3676,24 @@
         <v>3896000000</v>
       </c>
       <c r="Z15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AA15" s="19" t="s">
+      <c r="AB15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AB15" s="19" t="s">
+      <c r="AC15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AC15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1">
         <v>2079349000</v>
@@ -3779,18 +3766,18 @@
         <v>25.408635829744394</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1">
         <v>108485000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1">
         <v>80658000</v>
@@ -3808,16 +3795,16 @@
         <v>32000000</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N17" s="1">
         <v>427000000</v>
@@ -3841,12 +3828,12 @@
         <v>538000000</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1">
         <v>135528000</v>
@@ -3902,13 +3889,16 @@
       <c r="T18" s="1">
         <v>861000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="Z18" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="10">
         <v>692010000</v>
@@ -3964,10 +3954,14 @@
       <c r="T19" s="10">
         <v>19535000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="67">
+        <f>T40-T56-T61</f>
+        <v>-3928000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="e">
@@ -4043,12 +4037,12 @@
         <v>0.12399309551208293</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2">
         <v>0.25969999999999999</v>
@@ -4105,12 +4099,12 @@
         <v>0.66649999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="10">
         <v>452922000</v>
@@ -4167,12 +4161,12 @@
         <v>18813000000</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2">
         <v>0.17</v>
@@ -4229,12 +4223,12 @@
         <v>0.64190000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1">
         <v>3323000</v>
@@ -4291,12 +4285,12 @@
         <v>-677000000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="10">
         <v>456245000</v>
@@ -4353,12 +4347,12 @@
         <v>18136000000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2">
         <v>0.17119999999999999</v>
@@ -4415,12 +4409,12 @@
         <v>0.61880000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1">
         <v>183296000</v>
@@ -4477,12 +4471,12 @@
         <v>3179000000</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="11">
         <v>264701000</v>
@@ -4539,9 +4533,9 @@
         <v>14957000000</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="e">
@@ -4617,12 +4611,12 @@
         <v>0.21492973763301104</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2">
         <v>9.9299999999999999E-2</v>
@@ -4679,12 +4673,12 @@
         <v>0.51029999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="12">
         <v>0.09</v>
@@ -4741,12 +4735,12 @@
         <v>7.02</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="12">
         <v>0.09</v>
@@ -4805,10 +4799,10 @@
     </row>
     <row r="33" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1">
         <v>3100000000</v>
@@ -4867,10 +4861,10 @@
     </row>
     <row r="34" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1">
         <v>3100000000</v>
@@ -4929,7 +4923,7 @@
     </row>
     <row r="35" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="e">
@@ -5007,134 +5001,134 @@
     </row>
     <row r="36" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="1">
         <v>86000000</v>
@@ -5193,19 +5187,19 @@
     </row>
     <row r="39" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F39" s="1">
         <v>355000000</v>
@@ -5255,10 +5249,10 @@
     </row>
     <row r="40" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1">
         <v>86000000</v>
@@ -5317,13 +5311,13 @@
     </row>
     <row r="41" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1">
         <v>258035000</v>
@@ -5379,72 +5373,72 @@
     </row>
     <row r="42" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1">
         <v>781000000</v>
@@ -5503,10 +5497,10 @@
     </row>
     <row r="44" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="10">
         <v>867000000</v>
@@ -5565,19 +5559,19 @@
     </row>
     <row r="45" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45" s="1">
         <v>1080000000</v>
@@ -5627,19 +5621,19 @@
     </row>
     <row r="46" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F46" s="1">
         <v>10213000000</v>
@@ -5689,19 +5683,19 @@
     </row>
     <row r="47" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" s="1">
         <v>10883000000</v>
@@ -5751,19 +5745,19 @@
     </row>
     <row r="48" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F48" s="1">
         <v>21096000000</v>
@@ -5813,13 +5807,13 @@
     </row>
     <row r="49" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" s="1">
         <v>701643000</v>
@@ -5875,13 +5869,13 @@
     </row>
     <row r="50" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="1">
         <v>237533000</v>
@@ -5890,22 +5884,22 @@
         <v>470626000</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L50" s="1">
         <v>8000000</v>
@@ -5917,30 +5911,30 @@
         <v>22000000</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="1">
         <v>1038000000</v>
@@ -5999,10 +5993,10 @@
     </row>
     <row r="52" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="1">
         <v>1038000000</v>
@@ -6061,72 +6055,72 @@
     </row>
     <row r="53" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" s="11">
         <v>1905000000</v>
@@ -6185,13 +6179,13 @@
     </row>
     <row r="55" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="1">
         <v>119075000</v>
@@ -6247,10 +6241,10 @@
     </row>
     <row r="56" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="1">
         <v>174000000</v>
@@ -6271,31 +6265,31 @@
         <v>12000000</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O56" s="1">
         <v>1749000000</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R56" s="1">
         <v>2999000000</v>
@@ -6309,16 +6303,16 @@
     </row>
     <row r="57" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E57" s="1">
         <v>148551000</v>
@@ -6354,36 +6348,36 @@
         <v>243000000</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F58" s="1">
         <v>37000000</v>
@@ -6410,33 +6404,33 @@
         <v>81000000</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="1">
         <v>814000000</v>
@@ -6495,10 +6489,10 @@
     </row>
     <row r="60" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" s="10">
         <v>988000000</v>
@@ -6557,19 +6551,19 @@
     </row>
     <row r="61" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" s="1">
         <v>41280000</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F61" s="1">
         <v>55000000</v>
@@ -6581,19 +6575,19 @@
         <v>32000000</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N61" s="1">
         <v>15882000000</v>
@@ -6619,81 +6613,81 @@
     </row>
     <row r="62" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F63" s="1">
         <v>3811000000</v>
@@ -6743,10 +6737,10 @@
     </row>
     <row r="64" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="1">
         <v>1357000000</v>
@@ -6805,10 +6799,10 @@
     </row>
     <row r="65" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="1">
         <v>1357000000</v>
@@ -6867,72 +6861,72 @@
     </row>
     <row r="66" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="10">
         <v>2345000000</v>
@@ -6991,61 +6985,61 @@
     </row>
     <row r="68" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T68" s="1">
         <v>21869000000</v>
@@ -7053,19 +7047,19 @@
     </row>
     <row r="69" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F69" s="1">
         <v>186000000</v>
@@ -7115,13 +7109,13 @@
     </row>
     <row r="70" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D70" s="1">
         <v>582814000</v>
@@ -7177,16 +7171,16 @@
     </row>
     <row r="71" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" s="1">
         <v>-440000000</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E71" s="1">
         <v>-500999000</v>
@@ -7234,15 +7228,15 @@
         <v>18722000000</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="10">
         <v>-440000000</v>
@@ -7301,10 +7295,10 @@
     </row>
     <row r="73" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C73" s="11">
         <v>1905000000</v>
@@ -7363,134 +7357,134 @@
     </row>
     <row r="74" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76" s="1">
         <v>264701000</v>
@@ -7549,10 +7543,10 @@
     </row>
     <row r="77" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C77" s="1">
         <v>135528000</v>
@@ -7611,10 +7605,10 @@
     </row>
     <row r="78" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C78" s="1">
         <v>85186000</v>
@@ -7673,19 +7667,19 @@
     </row>
     <row r="79" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F79" s="1">
         <v>74000000</v>
@@ -7735,7 +7729,7 @@
     </row>
     <row r="80" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:T80" si="21">B79/B3</f>
@@ -7816,10 +7810,10 @@
     </row>
     <row r="81" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" s="1">
         <v>-732807000</v>
@@ -7878,19 +7872,19 @@
     </row>
     <row r="82" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" s="1">
         <v>-14285000</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F82" s="1">
         <v>-24000000</v>
@@ -7940,82 +7934,82 @@
     </row>
     <row r="83" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA83" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB83" s="33"/>
+        <v>92</v>
+      </c>
+      <c r="AA83" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB83" s="64"/>
     </row>
     <row r="84" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="1">
         <v>56580000</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E84" s="1">
         <v>-20491000</v>
@@ -8065,17 +8059,17 @@
       <c r="T84" s="1">
         <v>67000000</v>
       </c>
-      <c r="AA84" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB84" s="35"/>
+      <c r="AA84" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB84" s="66"/>
     </row>
     <row r="85" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="1">
         <v>-627700000</v>
@@ -8132,7 +8126,7 @@
         <v>-9351000000</v>
       </c>
       <c r="AA85" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB85" s="24">
         <f>T17</f>
@@ -8141,10 +8135,10 @@
     </row>
     <row r="86" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" s="1">
         <v>728021000</v>
@@ -8201,7 +8195,7 @@
         <v>10422000000</v>
       </c>
       <c r="AA86" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB86" s="24">
         <f>T56</f>
@@ -8210,10 +8204,10 @@
     </row>
     <row r="87" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" s="10">
         <v>480629000</v>
@@ -8270,7 +8264,7 @@
         <v>18849000000</v>
       </c>
       <c r="AA87" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB87" s="24">
         <f>T61</f>
@@ -8279,16 +8273,16 @@
     </row>
     <row r="88" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" s="1">
         <v>-119267000</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E88" s="1">
         <v>-159960000</v>
@@ -8338,17 +8332,17 @@
       <c r="T88" s="1">
         <v>-970000000</v>
       </c>
-      <c r="AA88" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB88" s="37">
+      <c r="AA88" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB88" s="33">
         <f>AB85/(AB86+AB87)</f>
         <v>2.396436525612472E-2</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:T89" si="22">(-1*B88)/B3</f>
@@ -8427,7 +8421,7 @@
         <v>3.3094506994199933E-2</v>
       </c>
       <c r="AA89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB89" s="24">
         <f>T27</f>
@@ -8436,25 +8430,25 @@
     </row>
     <row r="90" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="1">
         <v>97424000</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E90" s="1">
         <v>-2500000</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H90" s="1">
         <v>-1805000000</v>
@@ -8466,7 +8460,7 @@
         <v>-3000000</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L90" s="1">
         <v>-149000000</v>
@@ -8496,7 +8490,7 @@
         <v>-1948000000</v>
       </c>
       <c r="AA90" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB90" s="24">
         <f>T25</f>
@@ -8505,10 +8499,10 @@
     </row>
     <row r="91" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="1">
         <v>-1896715000</v>
@@ -8564,20 +8558,20 @@
       <c r="T91" s="1">
         <v>-6083000000</v>
       </c>
-      <c r="AA91" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB91" s="37">
+      <c r="AA91" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB91" s="33">
         <f>AB89/AB90</f>
         <v>0.17528672254080283</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" s="1">
         <v>1425427000</v>
@@ -8633,20 +8627,20 @@
       <c r="T92" s="1">
         <v>4585000000</v>
       </c>
-      <c r="AA92" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB92" s="39">
+      <c r="AA92" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB92" s="35">
         <f>AB88*(1-AB91)</f>
         <v>1.9763730212607931E-2</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" s="1">
         <v>20000000</v>
@@ -8667,7 +8661,7 @@
         <v>94000000</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J93" s="1">
         <v>2000000</v>
@@ -8702,17 +8696,17 @@
       <c r="T93" s="1">
         <v>128000000</v>
       </c>
-      <c r="AA93" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB93" s="35"/>
+      <c r="AA93" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB93" s="66"/>
     </row>
     <row r="94" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="10">
         <v>-473131000</v>
@@ -8769,18 +8763,18 @@
         <v>-4288000000</v>
       </c>
       <c r="AA94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB94" s="40">
+        <v>134</v>
+      </c>
+      <c r="AB94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" s="1">
         <v>-33768000</v>
@@ -8810,25 +8804,25 @@
         <v>-6000000</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P95" s="1">
         <v>-1750000000</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S95" s="1">
         <v>-3000000000</v>
@@ -8836,96 +8830,96 @@
       <c r="T95" s="1">
         <v>-1000000000</v>
       </c>
-      <c r="AA95" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB95" s="42">
+      <c r="AA95" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB95" s="38">
         <v>0.97</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F96" s="1">
         <v>19100000000</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB96" s="40">
+        <v>136</v>
+      </c>
+      <c r="AB96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F97" s="1">
         <v>-13446000000</v>
@@ -8972,29 +8966,29 @@
       <c r="T97" s="1">
         <v>-11589000000</v>
       </c>
-      <c r="AA97" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB97" s="39">
+      <c r="AA97" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB97" s="35">
         <f>(AB94)+((AB95)*(AB96-AB94))</f>
         <v>8.2708500000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F98" s="1">
         <v>-93000000</v>
@@ -9041,26 +9035,26 @@
       <c r="T98" s="1">
         <v>-3203000000</v>
       </c>
-      <c r="AA98" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB98" s="35"/>
+      <c r="AA98" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB98" s="66"/>
     </row>
     <row r="99" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" s="1">
         <v>-12198000</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F99" s="1">
         <v>-1913000000</v>
@@ -9108,7 +9102,7 @@
         <v>3096000000</v>
       </c>
       <c r="AA99" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB99" s="24">
         <f>AB86+AB87</f>
@@ -9117,10 +9111,10 @@
     </row>
     <row r="100" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C100" s="10">
         <v>-45966000</v>
@@ -9176,29 +9170,29 @@
       <c r="T100" s="10">
         <v>-12696000000</v>
       </c>
-      <c r="AA100" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB100" s="37">
+      <c r="AA100" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB100" s="33">
         <f>AB99/AB103</f>
         <v>4.7091546385697597E-2</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F101" s="1">
         <v>-5000000</v>
@@ -9216,7 +9210,7 @@
         <v>7000000</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L101" s="1">
         <v>-1000000</v>
@@ -9245,19 +9239,19 @@
       <c r="T101" s="1">
         <v>-1287000000</v>
       </c>
-      <c r="AA101" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB101" s="43">
+      <c r="AA101" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB101" s="39">
         <v>454281000000</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C102" s="10">
         <v>-38468000</v>
@@ -9313,20 +9307,20 @@
       <c r="T102" s="10">
         <v>578000000</v>
       </c>
-      <c r="AA102" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB102" s="37">
+      <c r="AA102" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB102" s="33">
         <f>AB101/AB103</f>
         <v>0.95290845361430243</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C103" s="1">
         <v>173865000</v>
@@ -9382,20 +9376,20 @@
       <c r="T103" s="1">
         <v>19799000000</v>
       </c>
-      <c r="AA103" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB103" s="44">
+      <c r="AA103" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB103" s="40">
         <f>AB99+AB101</f>
         <v>476731000000</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C104" s="11">
         <v>135397000</v>
@@ -9451,14 +9445,14 @@
       <c r="T104" s="11">
         <v>20377000000</v>
       </c>
-      <c r="AA104" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB104" s="35"/>
+      <c r="AA104" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB104" s="66"/>
     </row>
     <row r="105" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -9540,7 +9534,7 @@
       <c r="Y105" s="15"/>
       <c r="Z105" s="15"/>
       <c r="AA105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB105" s="26">
         <f>(AB100*AB92)+(AB102*AB97)</f>
@@ -9549,10 +9543,10 @@
     </row>
     <row r="106" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C106" s="1">
         <v>361362000</v>
@@ -9608,33 +9602,33 @@
       <c r="T106" s="1">
         <v>17879000000</v>
       </c>
-      <c r="U106" s="45">
+      <c r="U106" s="41">
         <f>T106*(1+$AB$106)</f>
         <v>19894539961.569832</v>
       </c>
-      <c r="V106" s="45">
+      <c r="V106" s="41">
         <f t="shared" ref="V106:Y106" si="29">U106*(1+$AB$106)</f>
         <v>22137296285.166897</v>
       </c>
-      <c r="W106" s="45">
+      <c r="W106" s="41">
         <f t="shared" si="29"/>
         <v>24632883583.330399</v>
       </c>
-      <c r="X106" s="45">
+      <c r="X106" s="41">
         <f t="shared" si="29"/>
         <v>27409804061.595394</v>
       </c>
-      <c r="Y106" s="45">
+      <c r="Y106" s="41">
         <f t="shared" si="29"/>
         <v>30499773043.358612</v>
       </c>
-      <c r="Z106" s="46" t="s">
+      <c r="Z106" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA106" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AA106" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB106" s="48">
+      <c r="AB106" s="44">
         <f>(SUM(U4:Y4)/5)</f>
         <v>0.11273225356954138</v>
       </c>
@@ -9660,153 +9654,153 @@
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
-      <c r="U107" s="46"/>
-      <c r="V107" s="46"/>
-      <c r="W107" s="46"/>
-      <c r="X107" s="46"/>
-      <c r="Y107" s="49">
+      <c r="U107" s="42"/>
+      <c r="V107" s="42"/>
+      <c r="W107" s="42"/>
+      <c r="X107" s="42"/>
+      <c r="Y107" s="45">
         <f>Y106*(1+AB107)/(AB108-AB107)</f>
         <v>571059421078.0575</v>
       </c>
-      <c r="Z107" s="50" t="s">
+      <c r="Z107" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AA107" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB107" s="52">
+      <c r="AB107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U108" s="49">
+      <c r="U108" s="45">
         <f t="shared" ref="U108:W108" si="30">U107+U106</f>
         <v>19894539961.569832</v>
       </c>
-      <c r="V108" s="49">
+      <c r="V108" s="45">
         <f t="shared" si="30"/>
         <v>22137296285.166897</v>
       </c>
-      <c r="W108" s="49">
+      <c r="W108" s="45">
         <f t="shared" si="30"/>
         <v>24632883583.330399</v>
       </c>
-      <c r="X108" s="49">
+      <c r="X108" s="45">
         <f>X107+X106</f>
         <v>27409804061.595394</v>
       </c>
-      <c r="Y108" s="49">
+      <c r="Y108" s="45">
         <f>Y107+Y106</f>
         <v>601559194121.41614</v>
       </c>
-      <c r="Z108" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA108" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB108" s="54">
+      <c r="Z108" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA108" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB108" s="50">
         <f>AB105</f>
         <v>7.9744333453819982E-2</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U109" s="55" t="s">
+      <c r="U109" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="V109" s="62"/>
+    </row>
+    <row r="110" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U110" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="V109" s="56"/>
-    </row>
-    <row r="110" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U110" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="V110" s="58">
+      <c r="V110" s="52">
         <f>NPV(AB108,U108,V108,W108,X108,Y108)</f>
         <v>487043788385.13867</v>
       </c>
     </row>
     <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U111" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="V111" s="58">
+      <c r="U111" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="V111" s="52">
         <f>T40</f>
         <v>18522000000</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U112" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="V112" s="58">
+      <c r="U112" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="V112" s="52">
         <f>AB99</f>
         <v>22450000000</v>
       </c>
     </row>
     <row r="113" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U113" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="V113" s="58">
+      <c r="U113" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="V113" s="52">
         <f>V110+V111-V112</f>
         <v>483115788385.13867</v>
       </c>
     </row>
     <row r="114" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U114" s="57" t="s">
+      <c r="U114" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="V114" s="53">
+        <f>T34*(1+(5*Z16))</f>
+        <v>1992517898.2511404</v>
+      </c>
+    </row>
+    <row r="115" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U115" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="V114" s="59">
-        <f>T34</f>
-        <v>2188000000</v>
-      </c>
-    </row>
-    <row r="115" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U115" s="60" t="s">
+      <c r="V115" s="55">
+        <f>V113/V114</f>
+        <v>242.46496797302342</v>
+      </c>
+    </row>
+    <row r="116" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U116" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="V115" s="61">
-        <f>V113/V114</f>
-        <v>220.80246269887508</v>
-      </c>
-    </row>
-    <row r="116" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U116" s="62" t="s">
+      <c r="V116" s="57">
+        <v>216.14</v>
+      </c>
+    </row>
+    <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U117" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="V116" s="63">
-        <v>216.14</v>
-      </c>
-    </row>
-    <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U117" s="64" t="s">
+      <c r="V117" s="59">
+        <f>V115/V116-1</f>
+        <v>0.12179590993348488</v>
+      </c>
+    </row>
+    <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U118" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="V117" s="65">
-        <f>V115/V116-1</f>
-        <v>2.1571493933908892E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U118" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="V118" s="66" t="str">
+      <c r="V118" s="60" t="str">
         <f>IF(V115&gt;V116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="U109:V109"/>
     <mergeCell ref="AA83:AB83"/>
     <mergeCell ref="AA84:AB84"/>
     <mergeCell ref="AA93:AB93"/>
     <mergeCell ref="AA98:AB98"/>
     <mergeCell ref="AA104:AB104"/>
-    <mergeCell ref="U109:V109"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/V" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/V" display="ROIC.AI | V" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B36" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B74" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C36" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
